--- a/inst/shiny-examples/KDHEtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/KDHEtools/Extras/tables/Instruction_Tables.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/WDEQtools/inst/shiny-examples/WDEQtools/Extras/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/KDHEtools/inst/shiny-examples/KDHEtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1075" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3969E4DE-7308-4F86-B7EF-7ECFDA5DFD24}"/>
+  <xr:revisionPtr revIDLastSave="1314" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25CFB62-E1B4-4014-942C-DBB1FEA8B371}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instr_Table_Diatoms" sheetId="10" r:id="rId1"/>
-    <sheet name="DiatomMetrics" sheetId="12" r:id="rId2"/>
+    <sheet name="Instr_Table_Bugs" sheetId="10" r:id="rId1"/>
+    <sheet name="BugMetrics" sheetId="12" r:id="rId2"/>
     <sheet name="MetAdjFactInput" sheetId="13" r:id="rId3"/>
-    <sheet name="StreamCatVars" sheetId="14" r:id="rId4"/>
+    <sheet name="MetAdjFactors" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="153">
   <si>
     <t>Column Name</t>
   </si>
@@ -53,78 +53,39 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>INDEX_NAME</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>INDEX_REGION</t>
-  </si>
-  <si>
     <t>STATIONID</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>SAMPLEID</t>
-  </si>
-  <si>
     <t>Unique sample identifier (typically comprised of the site name, sample date, and replicate number).</t>
   </si>
   <si>
-    <t>LAT</t>
-  </si>
-  <si>
     <t>numeric</t>
   </si>
   <si>
     <t>real number, in decimal degrees</t>
   </si>
   <si>
-    <t>LONG</t>
-  </si>
-  <si>
-    <t>COLLDATE</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>Date on which the sample was collected.</t>
   </si>
   <si>
-    <t>TAXAID</t>
-  </si>
-  <si>
-    <t>N_TAXA</t>
-  </si>
-  <si>
     <t>non-negative real number</t>
   </si>
   <si>
-    <t>EXCLUDE</t>
-  </si>
-  <si>
     <t>TRUE, FALSE</t>
   </si>
   <si>
-    <t>NONTARGET</t>
-  </si>
-  <si>
-    <t>ORDER</t>
-  </si>
-  <si>
-    <t>FAMILY</t>
-  </si>
-  <si>
-    <t>BC_USGS</t>
-  </si>
-  <si>
     <t>Taxonomic identification of organisms in each sample.</t>
   </si>
   <si>
@@ -134,9 +95,6 @@
     <t>Non-target taxa should be marked "TRUE".</t>
   </si>
   <si>
-    <t>BC_1, BC_2, BC_3, BC_4, BC_5 (can select multiple)</t>
-  </si>
-  <si>
     <t>5th</t>
   </si>
   <si>
@@ -146,9 +104,6 @@
     <t>Metric Category</t>
   </si>
   <si>
-    <t>Nutrients</t>
-  </si>
-  <si>
     <t>Metric Abbreviation</t>
   </si>
   <si>
@@ -176,289 +131,370 @@
     <t>Variable Description</t>
   </si>
   <si>
-    <t>Base Flow Index</t>
-  </si>
-  <si>
-    <t>% abundance of sensitive biological condition taxa</t>
-  </si>
-  <si>
-    <t>% taxa of salinity tolerant taxa</t>
-  </si>
-  <si>
-    <t>Weighted average of salinity tolerance by abundance</t>
-  </si>
-  <si>
-    <t># taxa of nitrogen sensitive taxa</t>
-  </si>
-  <si>
-    <t>% taxa of oligotrophic taxa</t>
-  </si>
-  <si>
-    <t>% taxa of eutrophic taxa</t>
-  </si>
-  <si>
-    <t>% taxa with affinity for relatively low oxygen</t>
-  </si>
-  <si>
-    <t>BC_12.pa</t>
-  </si>
-  <si>
-    <t>pt_H_WDEQ_34_RFadj</t>
-  </si>
-  <si>
-    <t>WA_Salinity_USGS</t>
-  </si>
-  <si>
-    <t>nt_Diatas_TN_2_RFadj</t>
-  </si>
-  <si>
-    <t>pt_T_WDEQ_12_RFadj</t>
-  </si>
-  <si>
-    <t>pt_T_WDEQ_56_RFadj</t>
-  </si>
-  <si>
-    <t>pt_O_WDEQ_4</t>
-  </si>
-  <si>
-    <t>Biological Condition</t>
-  </si>
-  <si>
-    <t>Oxygen</t>
-  </si>
-  <si>
-    <t>Trophic</t>
-  </si>
-  <si>
-    <t>Salinity</t>
-  </si>
-  <si>
-    <t>100*(metric - 0.03) / 0.6</t>
-  </si>
-  <si>
-    <t>100*(15.9 - metric) / 20.7</t>
-  </si>
-  <si>
-    <t>100*(2.2 - metric) / 1.1</t>
-  </si>
-  <si>
-    <t>100*(metric + 3.91) / 6.3</t>
-  </si>
-  <si>
-    <t>100*(metric + 7.0) / 11.6</t>
-  </si>
-  <si>
-    <t>100*(18.0 - metric) / 27.0</t>
-  </si>
-  <si>
-    <t>100*(15.7 - metric) / 15.7</t>
-  </si>
-  <si>
     <t>Data Source</t>
   </si>
   <si>
     <t>Elevation</t>
   </si>
   <si>
-    <t>Position above sea level in feet</t>
-  </si>
-  <si>
-    <t>WY DEQ</t>
-  </si>
-  <si>
-    <t>RckDepWs</t>
-  </si>
-  <si>
-    <t>Mean depth (cm) to bedrock of soils (STATSGO) within watershed</t>
-  </si>
-  <si>
-    <t>StreamCat: STATSGO_Set2_WY.csv</t>
-  </si>
-  <si>
-    <t>BFIWs</t>
-  </si>
-  <si>
-    <t>Baseflow Index (BFI) is the ratio of baseflow to total flow, expressed as a percentage, within watershed.</t>
-  </si>
-  <si>
-    <t>StreamCat: BFI_WY.csv</t>
-  </si>
-  <si>
-    <t>KffactWs</t>
-  </si>
-  <si>
-    <t>Mean soil erodibility (Kf) factor (unitless) of soils within watershed. The Kf factor is used in the Universal Soil Loss Equation (USLE) and represents a relative index of susceptibility of bare, cultivated soil to particle detachment and transport by rainfall.</t>
-  </si>
-  <si>
-    <t>StreamCat: Kffact_WY.csv</t>
-  </si>
-  <si>
-    <t>PRISM climate data - 30-year normal mean precipitation (mm): Annual period: 1981-2010 within the watershed</t>
-  </si>
-  <si>
-    <t>StreamCat:  PRISM_1981_2010_WY.csv</t>
-  </si>
-  <si>
-    <t>PRISM climate data - 30-year normal mean temperature (°C): Annual period: 1981-2010 within the watershed</t>
-  </si>
-  <si>
-    <t>StreamCat: PRISM_1981_2010_WY.csv</t>
-  </si>
-  <si>
-    <t>PRISM climate data - 30-year normal maximum temperature (°C): Annual period: 1981-2010 within the watershed</t>
-  </si>
-  <si>
     <t>SWs</t>
   </si>
   <si>
-    <t>Mean % of lithological sulfur (S) content in surface or near surface geology within watershed</t>
-  </si>
-  <si>
-    <t>StreamCat: GeoChemPhys1_WY.csv</t>
-  </si>
-  <si>
-    <t>Kf factor</t>
-  </si>
-  <si>
     <t>Mean precipitation</t>
   </si>
   <si>
-    <t>Rock depth</t>
-  </si>
-  <si>
     <t>Mean temperature</t>
   </si>
   <si>
-    <t>Maximum temperature</t>
-  </si>
-  <si>
     <t>Lithological sulfur</t>
   </si>
   <si>
-    <t>Statewide</t>
-  </si>
-  <si>
-    <t>H_WDEQ</t>
-  </si>
-  <si>
-    <t>O_WDEQ</t>
-  </si>
-  <si>
-    <t>T_WDEQ</t>
-  </si>
-  <si>
-    <t>DIATAS_TN</t>
-  </si>
-  <si>
-    <t>SALINITY_USGS_NUM</t>
-  </si>
-  <si>
     <t>PrecipWs</t>
   </si>
   <si>
-    <t>TmaxWs</t>
-  </si>
-  <si>
-    <t>TmeanWs</t>
-  </si>
-  <si>
-    <t>Numeric value 1, 2, 3, or 4</t>
-  </si>
-  <si>
-    <t>USGS Diatom trait - The Biological Condition rating. See the [report appendix](https://github.com/Blocktt/ShinyAppDocuments/tree/main/WDEQtools/Reports) for metric descriptions.</t>
-  </si>
-  <si>
-    <t>Numeric values that  corresponding to USGS traits: SALINITY_1, SALINITY_2, SALINITY_3, SALINITY_4. USGS Diatom trait - Tolerance to salinity is represented by the categories of fresh to brackish waters (Van Dam et al. 1994). See the [report appendix](https://github.com/Blocktt/ShinyAppDocuments/tree/main/WDEQtools/Reports) for metric descriptions.</t>
-  </si>
-  <si>
-    <t>Numeric value 1, 2, 3, 4, 5, 6, or 7</t>
-  </si>
-  <si>
-    <t>WDEQ Diatom trait - Tolerance to salinity is represented by the categories of fresh to brackish waters (Van Dam et al. 1994) as interpreted by WDEQ. See the [report appendix](https://github.com/Blocktt/ShinyAppDocuments/tree/main/WDEQtools/Reports) for metric descriptions.</t>
-  </si>
-  <si>
-    <t>WDEQ Diatom trait - Classification of “oxygen requirements” as summarized in Van Dam et al. (1994) and interpreted by WDEQ. See the [report appendix](https://github.com/Blocktt/ShinyAppDocuments/tree/main/WDEQtools/Reports) for metric descriptions.</t>
-  </si>
-  <si>
-    <t>WDEQ Diatom trait - The trophic categories of Van Dam et al. (1994) as interpreted by WDEQ. See the [report appendix](https://github.com/Blocktt/ShinyAppDocuments/tree/main/WDEQtools/Reports) for metric descriptions.</t>
-  </si>
-  <si>
-    <t>Numeric value 1, 2, 3, 4, or 5</t>
-  </si>
-  <si>
-    <t>Numeric value 1 or 2</t>
-  </si>
-  <si>
-    <t>USGS Diatom trait -Nitrogen tolerant diatoms 1, Nitrogen sensitive diatoms, 2. See the [report appendix](https://github.com/Blocktt/ShinyAppDocuments/tree/main/WDEQtools/Reports) for metric descriptions.</t>
-  </si>
-  <si>
-    <t>WY_DiatomIBI_2022</t>
-  </si>
-  <si>
     <t>70 (DEC)</t>
   </si>
   <si>
-    <t>80 (INC)</t>
-  </si>
-  <si>
-    <t>62 (INC)</t>
-  </si>
-  <si>
-    <t>64 (DEC)</t>
-  </si>
-  <si>
-    <t>78 (DEC)</t>
-  </si>
-  <si>
-    <t>74 (INC)</t>
-  </si>
-  <si>
-    <t>78 (INC)</t>
-  </si>
-  <si>
     <t>Number of individual valves (not number of taxa).</t>
   </si>
   <si>
-    <t>Site position above sea level in feet.</t>
-  </si>
-  <si>
     <t>Only one allowable entry (WY_DiatomIBI_2022).</t>
   </si>
   <si>
-    <t>Only one allowable entry (Statewide).</t>
-  </si>
-  <si>
     <t>Unique site identifier.</t>
   </si>
   <si>
-    <t>Taxonomic order of taxon.</t>
-  </si>
-  <si>
-    <t>Taxonomic family of taxon.</t>
-  </si>
-  <si>
     <t>NAD83 datum.</t>
   </si>
   <si>
     <t>NAD83 datum. Longitude values in North America (west of the prime meridian) should be negative.</t>
   </si>
   <si>
-    <t>Mean % of lithological sulfur (S) content in surface or near surface geology within watershed.</t>
-  </si>
-  <si>
-    <t>PRISM climate data - 30-year normal mean precipitation (mm): Annual period: 1981-2010 within the watershed.</t>
-  </si>
-  <si>
-    <t>PRISM climate data - 30-year normal maximum temperature (°C): Annual period: 1981-2010 within the watershed.</t>
-  </si>
-  <si>
-    <t>PRISM climate data - 30-year normal mean temperature (°C): Annual period: 1981-2010 within the watershed.</t>
-  </si>
-  <si>
-    <t>Mean depth (cm) to bedrock of soils (STATSGO) within watershed.</t>
-  </si>
-  <si>
-    <t>A single COMID per stationID. To obtain COMIDs, use GIS tools to associate stationID with [NHDPlus v2 flowline layers](https://nhdplus.com/NHDPlus/). Contact Eric Hargett (eric.hargett@wyo.gov) or Jeremy Zumberge (jeremy.zumberge@wyo.gov) for help on how to properly associate sites with flowlines.</t>
+    <t>Number of EPT taxa (RF adj)</t>
+  </si>
+  <si>
+    <t>Percent sensitive taxa (BCG attribute III+IV better)  (RF adj)</t>
+  </si>
+  <si>
+    <t>77 (DEC)</t>
+  </si>
+  <si>
+    <t>Hilsenhoff Biotic Index (HBI) (RF adj)</t>
+  </si>
+  <si>
+    <t>x_HBI_RFadj</t>
+  </si>
+  <si>
+    <t>68 (INC)</t>
+  </si>
+  <si>
+    <t>Number of climber + clinger taxa (RF adj)</t>
+  </si>
+  <si>
+    <t>Number of semivoltine taxa (RF adj)</t>
+  </si>
+  <si>
+    <t>66 (DEC)</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>Life cycle</t>
+  </si>
+  <si>
+    <t>nt_habit_climbcling_RFadj</t>
+  </si>
+  <si>
+    <t>nt_volt_semi_RFadj</t>
+  </si>
+  <si>
+    <t>pt_BCG_att1i234b_RFadj</t>
+  </si>
+  <si>
+    <t>nt_EPT_RFadj</t>
+  </si>
+  <si>
+    <t>100*(metric + 7.88) / 13.67</t>
+  </si>
+  <si>
+    <t>100*(metric + 7.53) / 13.32</t>
+  </si>
+  <si>
+    <t>100*(metric + 10.44) / 18.4</t>
+  </si>
+  <si>
+    <t>100*(metric + 3.57) / 7.56</t>
+  </si>
+  <si>
+    <t>100*(0.53 - metric) / 0.88</t>
+  </si>
+  <si>
+    <t>Index_Name</t>
+  </si>
+  <si>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>CollDate</t>
+  </si>
+  <si>
+    <t>CollMeth</t>
+  </si>
+  <si>
+    <t>StationID</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>TaxaID</t>
+  </si>
+  <si>
+    <t>N_Taxa</t>
+  </si>
+  <si>
+    <t>Exclude</t>
+  </si>
+  <si>
+    <t>Nontarget</t>
+  </si>
+  <si>
+    <t>BCG_Attr</t>
+  </si>
+  <si>
+    <t>Life_Cycle</t>
+  </si>
+  <si>
+    <t>TolVal</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>Al2O3Ws</t>
+  </si>
+  <si>
+    <t>CFS</t>
+  </si>
+  <si>
+    <t>ClayWs</t>
+  </si>
+  <si>
+    <t>ElevCat</t>
+  </si>
+  <si>
+    <t>Fe2O3Cat</t>
+  </si>
+  <si>
+    <t>K2OWs</t>
+  </si>
+  <si>
+    <t>L3Eco</t>
+  </si>
+  <si>
+    <t>MgOCat</t>
+  </si>
+  <si>
+    <t>NWs</t>
+  </si>
+  <si>
+    <t>PermWs</t>
+  </si>
+  <si>
+    <t>PrecipCat</t>
+  </si>
+  <si>
+    <t>SandWs</t>
+  </si>
+  <si>
+    <t>TmeanCat</t>
+  </si>
+  <si>
+    <t>WetIndexWs</t>
+  </si>
+  <si>
+    <t>WsAreaSqKm</t>
+  </si>
+  <si>
+    <t>WtDepWs</t>
+  </si>
+  <si>
+    <t>KS_BugMMI_2023</t>
+  </si>
+  <si>
+    <t>Method used to collect the sample.</t>
+  </si>
+  <si>
+    <t>Biological Condition Gradient (BCG) attribute of a macroinvertebrate taxon (relates to TaxaID).</t>
+  </si>
+  <si>
+    <t>number ranging from 0-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa with tolerance values ranging from 0 to 3 are considered ‘intolerant’ to anthropogenic disturbance and are included in the ‘intolerant’ metric calculations. Those with values ranging from 7 to 10 are included in the ‘tolerant’ metrics. </t>
+  </si>
+  <si>
+    <t>UNI, SEMI, MULTI (select one)</t>
+  </si>
+  <si>
+    <t>Entries should be consistent with the phylogeny.</t>
+  </si>
+  <si>
+    <t>BU, CB, CN, SP, SW (select multiple)</t>
+  </si>
+  <si>
+    <t>Number of broods or generations of an organism in a year (also referred to as ‘voltinism’): univoltine (UNI), semivoltine (SEMI), or multivoltine (MULTI).</t>
+  </si>
+  <si>
+    <t>Categorization of macroinvertebrate habits (i.e., mode of existence: Burrowers (BU), Climbers (CB), Clingers (CN), Sprawlers (SP), and Swimmers (SW).</t>
+  </si>
+  <si>
+    <t>StreamCat variable (Watershed scale): Mean % of lithological aluminum oxide (Al2O3) content in surface or near surface geology.</t>
+  </si>
+  <si>
+    <t>StreamCat variable (Watershed scale): Mean % clay content of soils (STATSGO).</t>
+  </si>
+  <si>
+    <t>StreamCat variable (Catchment scale): Mean elevation (m).</t>
+  </si>
+  <si>
+    <t>StreamCat variable (Catchment scale): Mean % of lithological ferric oxide (Fe2O3) content in surface or near surface geology.</t>
+  </si>
+  <si>
+    <t>StreamCat variable (Watershed scale): Mean % of lithological potassium oxide (K2O) content in surface or near surface geology.</t>
+  </si>
+  <si>
+    <t>StreamCat variable (Catchment scale): Mean % of lithological magnesium oxide (MgO) content in surface or near surface geology.</t>
+  </si>
+  <si>
+    <t>StreamCat variable (Watershed scale): Mean % of lithological nitrogen (N) content in surface or near surface geology.</t>
+  </si>
+  <si>
+    <t>StreamCat variable (Watershed scale): Mean permeability (cm/hour) of soils (STATSGO).</t>
+  </si>
+  <si>
+    <t>StreamCat variable (Watershed scale): Mean % sand content of soils (STATSGO)</t>
+  </si>
+  <si>
+    <t>StreamCat variable (Watershed scale): Mean % of lithological sulfur (S) content in surface or near surface geology.</t>
+  </si>
+  <si>
+    <t>StreamCat variable (Catchment scale): PRISM climate data - 30-year normal mean temperature (°C): Annual period: 1981-2010.</t>
+  </si>
+  <si>
+    <t>StreamCat variable (Catchment scale): PRISM climate data - 30-year normal mean precipitation (mm): Annual period: 1981-2010.</t>
+  </si>
+  <si>
+    <t>StreamCat variable (Watershed scale): PRISM climate data - 30-year normal mean precipitation (mm): Annual period: 1981-2010.</t>
+  </si>
+  <si>
+    <t>StreamCat variable (Watershed scale): Mean Composite Topographic Index (CTI) [Wetness Index].</t>
+  </si>
+  <si>
+    <t>StreamCat variable (Watershed scale): Mean seasonal water table depth (cm) of soils (STATSGO).</t>
+  </si>
+  <si>
+    <t>StreamCat variable: Watershed area (square kilometers).</t>
+  </si>
+  <si>
+    <t>Level III Ecoregion (Omernik)</t>
+  </si>
+  <si>
+    <t>Stream flow estimated by Perry et al. 2001 (cubic feet per second).</t>
+  </si>
+  <si>
+    <t>A single COMID per stationID. To obtain COMIDs, use GIS tools to associate stationID with [NHDPlus v2 flowline layers](https://nhdplus.com/NHDPlus/).</t>
+  </si>
+  <si>
+    <t>Lithological aluminum oxide</t>
+  </si>
+  <si>
+    <t>Stream flow</t>
+  </si>
+  <si>
+    <t>Soil clay content</t>
+  </si>
+  <si>
+    <t>Lithological ferric oxide</t>
+  </si>
+  <si>
+    <t>Lithological potassium oxide</t>
+  </si>
+  <si>
+    <t>Level III Ecoregion</t>
+  </si>
+  <si>
+    <t>Lithological magnesium oxide</t>
+  </si>
+  <si>
+    <t>Lithological nitrogen</t>
+  </si>
+  <si>
+    <t>Soil permeability</t>
+  </si>
+  <si>
+    <t>Soil sand content</t>
+  </si>
+  <si>
+    <t>Wetness index</t>
+  </si>
+  <si>
+    <t>Watershed area</t>
+  </si>
+  <si>
+    <t>Water table depth</t>
+  </si>
+  <si>
+    <t>GeoChemPhys1.csv</t>
+  </si>
+  <si>
+    <t>Perry et al. 2001 summarized by KDHE CUSEGA. Crosswalked to COMID.</t>
+  </si>
+  <si>
+    <t>STATSGO_Set1.csv</t>
+  </si>
+  <si>
+    <t>Elevation.csv</t>
+  </si>
+  <si>
+    <t>Tetra Tech. Level III Ecoregion designation assigned at centroid of NHDCatchment.</t>
+  </si>
+  <si>
+    <t>GeoChemPhys2.csv</t>
+  </si>
+  <si>
+    <t>STATSGO_Set2.csv</t>
+  </si>
+  <si>
+    <t>PRISM_1981_2010.csv</t>
+  </si>
+  <si>
+    <t>WetIndex.csv</t>
+  </si>
+  <si>
+    <t>Available from any of the StreamCat tables.</t>
+  </si>
+  <si>
+    <t>eco3_25, eco3_26, eco3_27, eco3_28, eco3_29, eco3_39, eco3_40, eco3_47 (select one)</t>
+  </si>
+  <si>
+    <t>Level III Ecoregion (Omernik): Western High Plains (eco3_25), Southwestern Tablelands (eco3_26), Central Great Plains (eco3_27), Flint Hills (eco3_28), Central Oklahoma/Texas Plains (eco3_29), Ozark Highlands (eco3_39), Central Irregular Plains (eco3_40), Western Corn Belt Plains (eco3_47).</t>
   </si>
 </sst>
 </file>
@@ -513,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -537,7 +573,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9F0D2-CC77-4503-9118-5EC0831F78BB}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +870,7 @@
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="98.140625" customWidth="1"/>
+    <col min="5" max="5" width="98.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,452 +886,560 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>99</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>5</v>
+      </c>
       <c r="D5" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D12" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>109</v>
+        <v>8</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>110</v>
+        <v>8</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>15</v>
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
       <c r="D21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>127</v>
+        <v>6</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
       <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>80</v>
+        <v>6</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="7"/>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
       <c r="D27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
       <c r="D28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>139</v>
+        <v>6</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6778C791-9A0C-41F8-B593-6C46134CE190}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1447,7 @@
     <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -1308,94 +1455,94 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E2">
-        <v>0.03</v>
+        <v>-7.88</v>
       </c>
       <c r="F2">
-        <v>0.63</v>
+        <v>5.79</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>-4.75</v>
+        <v>-7.53</v>
       </c>
       <c r="F3">
-        <v>15.91</v>
+        <v>5.79</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4">
-        <v>1.1100000000000001</v>
+        <v>-0.35</v>
       </c>
       <c r="F4">
-        <v>2.2000000000000002</v>
+        <v>0.53</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1406,19 +1553,19 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E5">
-        <v>-3.91</v>
+        <v>-10.44</v>
       </c>
       <c r="F5">
-        <v>2.41</v>
+        <v>7.96</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1429,65 +1576,19 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>-7.02</v>
+        <v>-3.57</v>
       </c>
       <c r="F6">
-        <v>4.54</v>
+        <v>3.99</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7">
-        <v>-9.02</v>
-      </c>
-      <c r="F7">
-        <v>18.010000000000002</v>
-      </c>
-      <c r="G7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>15.73</v>
-      </c>
-      <c r="G8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1602,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D11:D12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,30 +1629,30 @@
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1561,144 +1662,284 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13B6C17-F7DC-40F9-B395-1E70D79C8625}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
+        <v>83</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
         <v>88</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="D8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
         <v>91</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
         <v>92</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/inst/shiny-examples/KDHEtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/KDHEtools/Extras/tables/Instruction_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/KDHEtools/inst/shiny-examples/KDHEtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1314" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25CFB62-E1B4-4014-942C-DBB1FEA8B371}"/>
+  <xr:revisionPtr revIDLastSave="1393" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE0F11A1-3C09-4E9D-9DA7-4A5CA6E121B4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instr_Table_Bugs" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="MetAdjFactInput" sheetId="13" r:id="rId3"/>
     <sheet name="MetAdjFactors" sheetId="14" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MetAdjFactors!$A$1:$I$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="160">
   <si>
     <t>Column Name</t>
   </si>
@@ -128,9 +131,6 @@
     <t>Variable Abbreviation</t>
   </si>
   <si>
-    <t>Variable Description</t>
-  </si>
-  <si>
     <t>Data Source</t>
   </si>
   <si>
@@ -413,12 +413,6 @@
     <t>StreamCat variable: Watershed area (square kilometers).</t>
   </si>
   <si>
-    <t>Level III Ecoregion (Omernik)</t>
-  </si>
-  <si>
-    <t>Stream flow estimated by Perry et al. 2001 (cubic feet per second).</t>
-  </si>
-  <si>
     <t>A single COMID per stationID. To obtain COMIDs, use GIS tools to associate stationID with [NHDPlus v2 flowline layers](https://nhdplus.com/NHDPlus/).</t>
   </si>
   <si>
@@ -461,40 +455,70 @@
     <t>Water table depth</t>
   </si>
   <si>
-    <t>GeoChemPhys1.csv</t>
-  </si>
-  <si>
-    <t>Perry et al. 2001 summarized by KDHE CUSEGA. Crosswalked to COMID.</t>
-  </si>
-  <si>
-    <t>STATSGO_Set1.csv</t>
-  </si>
-  <si>
-    <t>Elevation.csv</t>
-  </si>
-  <si>
-    <t>Tetra Tech. Level III Ecoregion designation assigned at centroid of NHDCatchment.</t>
-  </si>
-  <si>
-    <t>GeoChemPhys2.csv</t>
-  </si>
-  <si>
-    <t>STATSGO_Set2.csv</t>
-  </si>
-  <si>
-    <t>PRISM_1981_2010.csv</t>
-  </si>
-  <si>
-    <t>WetIndex.csv</t>
-  </si>
-  <si>
-    <t>Available from any of the StreamCat tables.</t>
-  </si>
-  <si>
     <t>eco3_25, eco3_26, eco3_27, eco3_28, eco3_29, eco3_39, eco3_40, eco3_47 (select one)</t>
   </si>
   <si>
     <t>Level III Ecoregion (Omernik): Western High Plains (eco3_25), Southwestern Tablelands (eco3_26), Central Great Plains (eco3_27), Flint Hills (eco3_28), Central Oklahoma/Texas Plains (eco3_29), Ozark Highlands (eco3_39), Central Irregular Plains (eco3_40), Western Corn Belt Plains (eco3_47).</t>
+  </si>
+  <si>
+    <t>Level III Ecoregion designation assigned at centroid of NHDCatchment. https://www.epa.gov/eco-research/level-iii-and-iv-ecoregions-continental-united-states</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Provided by user in input file.</t>
+  </si>
+  <si>
+    <t>Number of EPT taxa</t>
+  </si>
+  <si>
+    <t>Percent sensitive taxa (BCG attribute III+IV better)</t>
+  </si>
+  <si>
+    <t>HBI</t>
+  </si>
+  <si>
+    <t>Number of climber + clinger taxa</t>
+  </si>
+  <si>
+    <t>Number of semivoltine taxa</t>
+  </si>
+  <si>
+    <t># MMI metrics</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Stream flow estimated by Perry et al. 2002 (cubic feet per second).</t>
+  </si>
+  <si>
+    <t>Perry et al. 2002 summarized by KDHE CUSEGA. Crosswalked to COMID.</t>
+  </si>
+  <si>
+    <t>StreamCat: GeoChemPhys1_(RegionID).csv, GeoChemPhys1_(StateID).csv</t>
+  </si>
+  <si>
+    <t>StreamCat: STATSGO_Set1_(RegionID).csv, STATSGO_Set1_(StateID).csv</t>
+  </si>
+  <si>
+    <t>StreamCat: Elevation_(RegionID).csv, Elevation_(StateID).csv</t>
+  </si>
+  <si>
+    <t>StreamCat: GeoChemPhys2_(RegionID).csv, GeoChemPhys2_(StateID).csv</t>
+  </si>
+  <si>
+    <t>StreamCat: STATSGO_Set2_(RegionID).csv, STATSGO_Set2_(StateID).csv</t>
+  </si>
+  <si>
+    <t>StreamCat: PRISM_1981_2010_(RegionID).csv, PRISM_1981_2010_(StateID).csv</t>
+  </si>
+  <si>
+    <t>StreamCat: WetIndx_(RegionID).csv, WetIndx_(StateID).csv</t>
+  </si>
+  <si>
+    <t>StreamCat: Available from any of the StreamCat tables.</t>
   </si>
 </sst>
 </file>
@@ -860,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9F0D2-CC77-4503-9118-5EC0831F78BB}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,24 +916,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -924,7 +948,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>12</v>
@@ -939,7 +963,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
@@ -948,12 +972,12 @@
         <v>8</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
@@ -963,12 +987,12 @@
         <v>6</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>10</v>
@@ -980,12 +1004,12 @@
         <v>6</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>10</v>
@@ -997,12 +1021,12 @@
         <v>6</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>5</v>
@@ -1017,7 +1041,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>10</v>
@@ -1029,12 +1053,12 @@
         <v>6</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -1051,7 +1075,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>5</v>
@@ -1068,7 +1092,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>5</v>
@@ -1077,63 +1101,63 @@
         <v>8</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>5</v>
@@ -1142,12 +1166,12 @@
         <v>8</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>5</v>
@@ -1156,12 +1180,12 @@
         <v>8</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>5</v>
@@ -1170,12 +1194,12 @@
         <v>8</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1184,12 +1208,12 @@
         <v>6</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1198,12 +1222,12 @@
         <v>6</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1212,12 +1236,12 @@
         <v>6</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1226,12 +1250,12 @@
         <v>6</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1240,12 +1264,12 @@
         <v>6</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1254,29 +1278,29 @@
         <v>6</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1285,12 +1309,12 @@
         <v>6</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1299,12 +1323,12 @@
         <v>6</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1313,12 +1337,12 @@
         <v>6</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1327,12 +1351,12 @@
         <v>6</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1341,12 +1365,12 @@
         <v>6</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1355,12 +1379,12 @@
         <v>6</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1369,12 +1393,12 @@
         <v>6</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1383,12 +1407,12 @@
         <v>6</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1397,12 +1421,12 @@
         <v>6</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -1411,12 +1435,12 @@
         <v>6</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -1425,7 +1449,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1478,16 +1502,16 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
       </c>
       <c r="E2">
         <v>-7.88</v>
@@ -1496,21 +1520,21 @@
         <v>5.79</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>-7.53</v>
@@ -1519,21 +1543,21 @@
         <v>5.79</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>-0.35</v>
@@ -1542,21 +1566,21 @@
         <v>0.53</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>-10.44</v>
@@ -1565,21 +1589,21 @@
         <v>7.96</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>-3.57</v>
@@ -1588,7 +1612,7 @@
         <v>3.99</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1652,7 +1676,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1662,287 +1686,513 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13B6C17-F7DC-40F9-B395-1E70D79C8625}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="67.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
         <v>128</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="I6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
         <v>135</v>
       </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
         <v>136</v>
       </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
         <v>137</v>
       </c>
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" t="s">
-        <v>147</v>
+      <c r="I20" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I20" xr:uid="{B13B6C17-F7DC-40F9-B395-1E70D79C8625}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I20">
+      <sortCondition ref="A1:A20"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/inst/shiny-examples/KDHEtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/KDHEtools/Extras/tables/Instruction_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/KDHEtools/inst/shiny-examples/KDHEtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1393" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE0F11A1-3C09-4E9D-9DA7-4A5CA6E121B4}"/>
+  <xr:revisionPtr revIDLastSave="1406" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E88EE019-CE07-41B6-A55D-1D20B21DB77C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instr_Table_Bugs" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="160">
   <si>
     <t>Column Name</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Number of individual valves (not number of taxa).</t>
   </si>
   <si>
-    <t>Only one allowable entry (WY_DiatomIBI_2022).</t>
-  </si>
-  <si>
     <t>Unique site identifier.</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>100*(0.53 - metric) / 0.88</t>
   </si>
   <si>
-    <t>Index_Name</t>
-  </si>
-  <si>
     <t>SampleID</t>
   </si>
   <si>
@@ -335,9 +329,6 @@
     <t>WtDepWs</t>
   </si>
   <si>
-    <t>KS_BugMMI_2023</t>
-  </si>
-  <si>
     <t>Method used to collect the sample.</t>
   </si>
   <si>
@@ -519,6 +510,15 @@
   </si>
   <si>
     <t>StreamCat: Available from any of the StreamCat tables.</t>
+  </si>
+  <si>
+    <t>Airbreather</t>
+  </si>
+  <si>
+    <t>Airbreathing taxa should be marked "TRUE".</t>
+  </si>
+  <si>
+    <t>Family</t>
   </si>
 </sst>
 </file>
@@ -882,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9F0D2-CC77-4503-9118-5EC0831F78BB}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,73 +916,73 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>5</v>
+      </c>
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
@@ -992,7 +992,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>10</v>
@@ -1009,56 +1009,56 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -1070,12 +1070,12 @@
         <v>6</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>5</v>
@@ -1084,15 +1084,15 @@
         <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>5</v>
@@ -1101,63 +1101,63 @@
         <v>8</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>5</v>
@@ -1166,12 +1166,12 @@
         <v>8</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>5</v>
@@ -1180,12 +1180,12 @@
         <v>8</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>5</v>
@@ -1194,26 +1194,26 @@
         <v>8</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1222,12 +1222,12 @@
         <v>6</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1236,12 +1236,12 @@
         <v>6</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1250,12 +1250,12 @@
         <v>6</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1264,12 +1264,12 @@
         <v>6</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1278,43 +1278,43 @@
         <v>6</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>135</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1323,12 +1323,12 @@
         <v>6</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1337,12 +1337,12 @@
         <v>6</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1351,12 +1351,12 @@
         <v>6</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1365,12 +1365,12 @@
         <v>6</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1379,12 +1379,12 @@
         <v>6</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1393,12 +1393,12 @@
         <v>6</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1407,12 +1407,12 @@
         <v>6</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1421,12 +1421,12 @@
         <v>6</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -1435,12 +1435,12 @@
         <v>6</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -1449,7 +1449,21 @@
         <v>6</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1502,16 +1516,16 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>-7.88</v>
@@ -1520,21 +1534,21 @@
         <v>5.79</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>-7.53</v>
@@ -1543,21 +1557,21 @@
         <v>5.79</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>-0.35</v>
@@ -1566,21 +1580,21 @@
         <v>0.53</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>-10.44</v>
@@ -1589,21 +1603,21 @@
         <v>7.96</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>-3.57</v>
@@ -1612,7 +1626,7 @@
         <v>3.99</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1676,7 +1690,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1688,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13B6C17-F7DC-40F9-B395-1E70D79C8625}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,22 +1719,22 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>145</v>
-      </c>
-      <c r="E1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" t="s">
-        <v>148</v>
       </c>
       <c r="H1" t="s">
         <v>28</v>
@@ -1731,76 +1745,76 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1809,200 +1823,200 @@
         <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" t="s">
         <v>149</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" t="s">
         <v>149</v>
-      </c>
-      <c r="C7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2011,7 +2025,7 @@
         <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2019,19 +2033,19 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -2040,33 +2054,33 @@
         <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2074,7 +2088,7 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2083,15 +2097,15 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2100,91 +2114,91 @@
         <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G18">
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/inst/shiny-examples/KDHEtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/KDHEtools/Extras/tables/Instruction_Tables.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/KDHEtools/inst/shiny-examples/KDHEtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1406" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E88EE019-CE07-41B6-A55D-1D20B21DB77C}"/>
+  <xr:revisionPtr revIDLastSave="1435" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BD6C74D-C688-40B5-8CB8-01BD811C7D58}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instr_Table_Bugs" sheetId="10" r:id="rId1"/>
     <sheet name="BugMetrics" sheetId="12" r:id="rId2"/>
-    <sheet name="MetAdjFactInput" sheetId="13" r:id="rId3"/>
-    <sheet name="MetAdjFactors" sheetId="14" r:id="rId4"/>
+    <sheet name="MetAdjFactors" sheetId="14" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MetAdjFactors!$A$1:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Instr_Table_Bugs!$A$1:$E$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MetAdjFactors!$A$1:$I$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="152">
   <si>
     <t>Column Name</t>
   </si>
@@ -77,12 +77,6 @@
     <t>real number, in decimal degrees</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Date on which the sample was collected.</t>
-  </si>
-  <si>
     <t>non-negative real number</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>Taxonomic identification of organisms in each sample.</t>
   </si>
   <si>
-    <t>Redundant (non-distinct) taxa should marked "TRUE".</t>
-  </si>
-  <si>
     <t>Non-target taxa should be marked "TRUE".</t>
   </si>
   <si>
@@ -119,12 +110,6 @@
     <t>Metric Name</t>
   </si>
   <si>
-    <t>COMID</t>
-  </si>
-  <si>
-    <t>Any alphanumeric stationID name - should be unique.</t>
-  </si>
-  <si>
     <t>Variable Name</t>
   </si>
   <si>
@@ -233,54 +218,12 @@
     <t>100*(0.53 - metric) / 0.88</t>
   </si>
   <si>
-    <t>SampleID</t>
-  </si>
-  <si>
-    <t>CollDate</t>
-  </si>
-  <si>
-    <t>CollMeth</t>
-  </si>
-  <si>
-    <t>StationID</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
     <t>Long</t>
   </si>
   <si>
-    <t>TaxaID</t>
-  </si>
-  <si>
-    <t>N_Taxa</t>
-  </si>
-  <si>
-    <t>Exclude</t>
-  </si>
-  <si>
-    <t>Nontarget</t>
-  </si>
-  <si>
-    <t>BCG_Attr</t>
-  </si>
-  <si>
-    <t>Life_Cycle</t>
-  </si>
-  <si>
     <t>TolVal</t>
   </si>
   <si>
-    <t>Phylum</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Genus</t>
-  </si>
-  <si>
     <t>Al2O3Ws</t>
   </si>
   <si>
@@ -329,9 +272,6 @@
     <t>WtDepWs</t>
   </si>
   <si>
-    <t>Method used to collect the sample.</t>
-  </si>
-  <si>
     <t>Biological Condition Gradient (BCG) attribute of a macroinvertebrate taxon (relates to TaxaID).</t>
   </si>
   <si>
@@ -404,9 +344,6 @@
     <t>StreamCat variable: Watershed area (square kilometers).</t>
   </si>
   <si>
-    <t>A single COMID per stationID. To obtain COMIDs, use GIS tools to associate stationID with [NHDPlus v2 flowline layers](https://nhdplus.com/NHDPlus/).</t>
-  </si>
-  <si>
     <t>Lithological aluminum oxide</t>
   </si>
   <si>
@@ -512,20 +449,59 @@
     <t>StreamCat: Available from any of the StreamCat tables.</t>
   </si>
   <si>
-    <t>Airbreather</t>
-  </si>
-  <si>
     <t>Airbreathing taxa should be marked "TRUE".</t>
   </si>
   <si>
-    <t>Family</t>
+    <t>SAMPLEID</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>TAXAID</t>
+  </si>
+  <si>
+    <t>N_TAXA</t>
+  </si>
+  <si>
+    <t>NONTARGET</t>
+  </si>
+  <si>
+    <t>AIRBREATHER</t>
+  </si>
+  <si>
+    <t>BCG_ATTR</t>
+  </si>
+  <si>
+    <t>BCG_ATTR2</t>
+  </si>
+  <si>
+    <t>HABIT</t>
+  </si>
+  <si>
+    <t>LIFE_CYCLE</t>
+  </si>
+  <si>
+    <t>PHYLUM</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>FAMILY</t>
+  </si>
+  <si>
+    <t>GENUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,12 +511,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -573,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -583,15 +553,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -882,19 +843,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9F0D2-CC77-4503-9118-5EC0831F78BB}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="98.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="98.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -916,557 +877,526 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>13</v>
+      <c r="E3" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>96</v>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>39</v>
+        <v>139</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>40</v>
+        <v>140</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>41</v>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>16</v>
+        <v>142</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>38</v>
+        <v>143</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>17</v>
+        <v>144</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E13" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E14" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E15" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>99</v>
+      <c r="E16" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>101</v>
+      <c r="E17" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>101</v>
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>105</v>
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>108</v>
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>110</v>
+      <c r="D28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>116</v>
+      <c r="D31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>115</v>
+      <c r="D35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>119</v>
+      <c r="D36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E36" xr:uid="{E3E9F0D2-CC77-4503-9118-5EC0831F78BB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1493,39 +1423,39 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>-7.88</v>
@@ -1534,21 +1464,21 @@
         <v>5.79</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>-7.53</v>
@@ -1557,21 +1487,21 @@
         <v>5.79</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>-0.35</v>
@@ -1580,21 +1510,21 @@
         <v>0.53</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>-10.44</v>
@@ -1603,21 +1533,21 @@
         <v>7.96</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>-3.57</v>
@@ -1626,7 +1556,7 @@
         <v>3.99</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1636,69 +1566,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6FF9DF-D953-4ABE-835B-97D392B009F8}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="94.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13B6C17-F7DC-40F9-B395-1E70D79C8625}">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -1716,489 +1583,489 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>148</v>
+        <v>102</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="I7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>137</v>
+        <v>106</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>139</v>
+        <v>117</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" t="s">
         <v>128</v>
-      </c>
-      <c r="I10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I11" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G18">
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/inst/shiny-examples/KDHEtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/KDHEtools/Extras/tables/Instruction_Tables.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/KDHEtools/inst/shiny-examples/KDHEtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1435" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BD6C74D-C688-40B5-8CB8-01BD811C7D58}"/>
+  <xr:revisionPtr revIDLastSave="1463" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDBEFD07-738A-4233-8D57-4114FFC88EF1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instr_Table_Bugs" sheetId="10" r:id="rId1"/>
     <sheet name="BugMetrics" sheetId="12" r:id="rId2"/>
     <sheet name="MetAdjFactors" sheetId="14" r:id="rId3"/>
+    <sheet name="OutputMetadata" sheetId="15" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Instr_Table_Bugs!$A$1:$E$36</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="228">
   <si>
     <t>Column Name</t>
   </si>
@@ -101,12 +102,6 @@
     <t>Metric Abbreviation</t>
   </si>
   <si>
-    <t>Metric DE (Trend)</t>
-  </si>
-  <si>
-    <t>Scoring Formula</t>
-  </si>
-  <si>
     <t>Metric Name</t>
   </si>
   <si>
@@ -137,12 +132,6 @@
     <t>PrecipWs</t>
   </si>
   <si>
-    <t>70 (DEC)</t>
-  </si>
-  <si>
-    <t>Number of individual valves (not number of taxa).</t>
-  </si>
-  <si>
     <t>Unique site identifier.</t>
   </si>
   <si>
@@ -158,27 +147,18 @@
     <t>Percent sensitive taxa (BCG attribute III+IV better)  (RF adj)</t>
   </si>
   <si>
-    <t>77 (DEC)</t>
-  </si>
-  <si>
     <t>Hilsenhoff Biotic Index (HBI) (RF adj)</t>
   </si>
   <si>
     <t>x_HBI_RFadj</t>
   </si>
   <si>
-    <t>68 (INC)</t>
-  </si>
-  <si>
     <t>Number of climber + clinger taxa (RF adj)</t>
   </si>
   <si>
     <t>Number of semivoltine taxa (RF adj)</t>
   </si>
   <si>
-    <t>66 (DEC)</t>
-  </si>
-  <si>
     <t>Composition</t>
   </si>
   <si>
@@ -272,30 +252,15 @@
     <t>WtDepWs</t>
   </si>
   <si>
-    <t>Biological Condition Gradient (BCG) attribute of a macroinvertebrate taxon (relates to TaxaID).</t>
-  </si>
-  <si>
     <t>number ranging from 0-10</t>
   </si>
   <si>
     <t xml:space="preserve">Taxa with tolerance values ranging from 0 to 3 are considered ‘intolerant’ to anthropogenic disturbance and are included in the ‘intolerant’ metric calculations. Those with values ranging from 7 to 10 are included in the ‘tolerant’ metrics. </t>
   </si>
   <si>
-    <t>UNI, SEMI, MULTI (select one)</t>
-  </si>
-  <si>
     <t>Entries should be consistent with the phylogeny.</t>
   </si>
   <si>
-    <t>BU, CB, CN, SP, SW (select multiple)</t>
-  </si>
-  <si>
-    <t>Number of broods or generations of an organism in a year (also referred to as ‘voltinism’): univoltine (UNI), semivoltine (SEMI), or multivoltine (MULTI).</t>
-  </si>
-  <si>
-    <t>Categorization of macroinvertebrate habits (i.e., mode of existence: Burrowers (BU), Climbers (CB), Clingers (CN), Sprawlers (SP), and Swimmers (SW).</t>
-  </si>
-  <si>
     <t>StreamCat variable (Watershed scale): Mean % of lithological aluminum oxide (Al2O3) content in surface or near surface geology.</t>
   </si>
   <si>
@@ -383,9 +348,6 @@
     <t>Water table depth</t>
   </si>
   <si>
-    <t>eco3_25, eco3_26, eco3_27, eco3_28, eco3_29, eco3_39, eco3_40, eco3_47 (select one)</t>
-  </si>
-  <si>
     <t>Level III Ecoregion (Omernik): Western High Plains (eco3_25), Southwestern Tablelands (eco3_26), Central Great Plains (eco3_27), Flint Hills (eco3_28), Central Oklahoma/Texas Plains (eco3_29), Ozark Highlands (eco3_39), Central Irregular Plains (eco3_40), Western Corn Belt Plains (eco3_47).</t>
   </si>
   <si>
@@ -419,9 +381,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Stream flow estimated by Perry et al. 2002 (cubic feet per second).</t>
-  </si>
-  <si>
     <t>Perry et al. 2002 summarized by KDHE CUSEGA. Crosswalked to COMID.</t>
   </si>
   <si>
@@ -495,6 +454,276 @@
   </si>
   <si>
     <t>GENUS</t>
+  </si>
+  <si>
+    <t>Response to stress</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Scoring Formula (RF adjusted metric value)</t>
+  </si>
+  <si>
+    <t>Number of individuals (not number of taxa).</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 5, 6m</t>
+  </si>
+  <si>
+    <t>Biological Condition Gradient (BCG) attribute of a macroinvertebrate taxon (relates to TaxaID). Entries: highly sensitive (2), sensitive (3), intermediate tolerant (4), tolerant (5), non-native/intermediate tolerant (6m).</t>
+  </si>
+  <si>
+    <t>4_better, 4_middle, 4_worse</t>
+  </si>
+  <si>
+    <t>Biological Condition Gradient (BCG) Attribute IV (intermediate tolerant) subgroups.</t>
+  </si>
+  <si>
+    <t>BU, CB, CN, SP, SW</t>
+  </si>
+  <si>
+    <t>UNI, SEMI, MULTI</t>
+  </si>
+  <si>
+    <t>Entries: Burrowers (BU), Climbers (CB), Clingers (CN), Sprawlers (SP), and Swimmers (SW). Multiple entries are allowed and should be separated with a SEMICOLON rather than a comma or space (e.g., CB;CN).</t>
+  </si>
+  <si>
+    <t>Number of broods or generations of an organism in a year (also referred to as ‘voltinism’): univoltine (UNI), semivoltine (SEMI), or multivoltine (MULTI). Multiple entries are allowed and should be separated with a SEMICOLON rather than a comma or space.</t>
+  </si>
+  <si>
+    <t>Stream flow estimated by Perry et al. 2004 (cubic feet per second).</t>
+  </si>
+  <si>
+    <t>eco3_25, eco3_26, eco3_27, eco3_28, eco3_29, eco3_39, eco3_40, eco3_47</t>
+  </si>
+  <si>
+    <t>Unique sample identifier</t>
+  </si>
+  <si>
+    <t>Index_Score</t>
+  </si>
+  <si>
+    <t>MMI (0-100)</t>
+  </si>
+  <si>
+    <t>x_HBI</t>
+  </si>
+  <si>
+    <t>Hilsenhoff Biotic Index</t>
+  </si>
+  <si>
+    <t>RF adjusted - Hilsenhoff Biotic Index</t>
+  </si>
+  <si>
+    <t>x_HBI_RFadj_std</t>
+  </si>
+  <si>
+    <t>Score - RF adjusted Hilsenhoff Biotic Index</t>
+  </si>
+  <si>
+    <t>nt_habit_climbcling</t>
+  </si>
+  <si>
+    <t># Climber + clinger taxa</t>
+  </si>
+  <si>
+    <t>RF adjusted - # Climber + clinger taxa</t>
+  </si>
+  <si>
+    <t>nt_habit_climbcling_RFadj_std</t>
+  </si>
+  <si>
+    <t>Score - RF adjusted # Climber + clinger taxa</t>
+  </si>
+  <si>
+    <t>nt_EPT</t>
+  </si>
+  <si>
+    <t># EPT taxa</t>
+  </si>
+  <si>
+    <t>RF adjusted - # EPT taxa</t>
+  </si>
+  <si>
+    <t>nt_EPT_RFadj_std</t>
+  </si>
+  <si>
+    <t>Score - RF adjusted # EPT taxa</t>
+  </si>
+  <si>
+    <t>pt_BCG_att1i234b</t>
+  </si>
+  <si>
+    <t>% Sensitive taxa (BCG attribute III+IV better)</t>
+  </si>
+  <si>
+    <t>RF adjusted - % Sensitive taxa (BCG attribute III+IV better)</t>
+  </si>
+  <si>
+    <t>pt_BCG_att1i234b_RFadj_std</t>
+  </si>
+  <si>
+    <t>Score - RF adjusted % Sensitive taxa (BCG attribute III+IV better)</t>
+  </si>
+  <si>
+    <t>nt_volt_semi</t>
+  </si>
+  <si>
+    <t># Semivoltine taxa</t>
+  </si>
+  <si>
+    <t>RF adjusted - # Semivoltine taxa</t>
+  </si>
+  <si>
+    <t>nt_volt_semi_RFadj_std</t>
+  </si>
+  <si>
+    <t>Score - RF adjusted # Semivoltine taxa</t>
+  </si>
+  <si>
+    <t>Mean % of lithological aluminum oxide (Al2O3) content in surface or near surface geology within watershed</t>
+  </si>
+  <si>
+    <t>Median flow statistics (ten-year median)</t>
+  </si>
+  <si>
+    <t>Mean % clay content of soils (STATSGO) within watershed</t>
+  </si>
+  <si>
+    <t>Mean catchment elevation (m)</t>
+  </si>
+  <si>
+    <t>Mean % of lithological ferric oxide (Fe2O3) content in surface or near surface geology within catchment</t>
+  </si>
+  <si>
+    <t>Mean % of lithological potassium oxide (K2O) content in surface or near surface geology within watershed</t>
+  </si>
+  <si>
+    <t>Omernik Level 3 ecoregion</t>
+  </si>
+  <si>
+    <t>Mean % of lithological magnesium oxide (MgO) content in surface or near surface geology within catchment</t>
+  </si>
+  <si>
+    <t>Mean % of lithological nitrogen (N) content in surface or near surface geology within watershed</t>
+  </si>
+  <si>
+    <t>Mean permeability (cm/hour) of soils (STATSGO) within watershed</t>
+  </si>
+  <si>
+    <t>PRISM climate data - 30-year normal mean precipitation (mm): Annual period: 1981-2010 within the catchment</t>
+  </si>
+  <si>
+    <t>PRISM climate data - 30-year normal mean precipitation (mm): Annual period: 1981-2010 within the watershed</t>
+  </si>
+  <si>
+    <t>Mean % sand content of soils (STATSGO) within watershed</t>
+  </si>
+  <si>
+    <t>Mean % of lithological sulfur (S) content in surface or near surface geology within watershed</t>
+  </si>
+  <si>
+    <t>PRISM climate data - 30-year normal mean temperature (C°): Annual period: 1981-2010 within the catchment</t>
+  </si>
+  <si>
+    <t>Mean Composite Topographic Index (CTI) [Wetness Index] within watershed</t>
+  </si>
+  <si>
+    <t>Watershed area (square km) at NHDPlus stream segment outlet, i.e., at the most downstream location of the vector line segment</t>
+  </si>
+  <si>
+    <t>Mean seasonal water table depth (cm) of soils (STATSGO) within watershed</t>
+  </si>
+  <si>
+    <t>ni_total</t>
+  </si>
+  <si>
+    <t># Total individuals</t>
+  </si>
+  <si>
+    <t>nt_Coleo</t>
+  </si>
+  <si>
+    <t># Coleoptera taxa</t>
+  </si>
+  <si>
+    <t>nt_Ephem</t>
+  </si>
+  <si>
+    <t># Ephemeroptera taxa</t>
+  </si>
+  <si>
+    <t>nt_Odon</t>
+  </si>
+  <si>
+    <t># Odonata taxa</t>
+  </si>
+  <si>
+    <t>nt_Trich</t>
+  </si>
+  <si>
+    <t># Trichoptera taxa</t>
+  </si>
+  <si>
+    <t>pi_airbreath</t>
+  </si>
+  <si>
+    <t>% Individs - air breathers</t>
+  </si>
+  <si>
+    <t>pi_Cheu</t>
+  </si>
+  <si>
+    <t>% Individs- Cheumatopsyche</t>
+  </si>
+  <si>
+    <t>pi_CorixPhys</t>
+  </si>
+  <si>
+    <t>% Corixidae + Physidae individs</t>
+  </si>
+  <si>
+    <t>pi_dom01</t>
+  </si>
+  <si>
+    <t>% Individs - most dominant taxon</t>
+  </si>
+  <si>
+    <t>pi_dom02</t>
+  </si>
+  <si>
+    <t>% Individs - two most dominant taxa</t>
+  </si>
+  <si>
+    <t>pt_Chiro</t>
+  </si>
+  <si>
+    <t>% Taxa - Chironomidae</t>
+  </si>
+  <si>
+    <t>pt_oneind</t>
+  </si>
+  <si>
+    <t>% Taxa - single individual</t>
+  </si>
+  <si>
+    <t>x_Shan_2</t>
+  </si>
+  <si>
+    <t>Shannon Wiener Diversity Index (log base 2)</t>
+  </si>
+  <si>
+    <t>INDEX_CLASS</t>
+  </si>
+  <si>
+    <t>ignore (it's a behind-the-scenes thing from R)</t>
+  </si>
+  <si>
+    <t>INDEX_NAME</t>
   </si>
 </sst>
 </file>
@@ -845,15 +1074,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9F0D2-CC77-4503-9118-5EC0831F78BB}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="98.140625" style="6" customWidth="1"/>
   </cols>
@@ -877,7 +1106,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -902,12 +1131,12 @@
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -919,12 +1148,12 @@
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -936,12 +1165,12 @@
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -956,7 +1185,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -968,12 +1197,12 @@
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -990,7 +1219,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
@@ -1002,91 +1231,97 @@
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>5</v>
@@ -1095,12 +1330,12 @@
         <v>8</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>5</v>
@@ -1109,12 +1344,12 @@
         <v>8</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
@@ -1123,12 +1358,12 @@
         <v>8</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
@@ -1137,12 +1372,12 @@
         <v>8</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1151,12 +1386,12 @@
         <v>6</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1165,12 +1400,12 @@
         <v>6</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1179,12 +1414,12 @@
         <v>6</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1193,12 +1428,12 @@
         <v>6</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1207,12 +1442,12 @@
         <v>6</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1221,29 +1456,29 @@
         <v>6</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1252,12 +1487,12 @@
         <v>6</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1266,12 +1501,12 @@
         <v>6</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1280,12 +1515,12 @@
         <v>6</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1294,12 +1529,12 @@
         <v>6</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1308,12 +1543,12 @@
         <v>6</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1322,12 +1557,12 @@
         <v>6</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1336,12 +1571,12 @@
         <v>6</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1350,12 +1585,12 @@
         <v>6</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1364,12 +1599,12 @@
         <v>6</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1378,12 +1613,12 @@
         <v>6</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -1392,7 +1627,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1407,7 +1642,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1423,16 +1658,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -1446,16 +1681,16 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>-7.88</v>
@@ -1464,21 +1699,21 @@
         <v>5.79</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>-7.53</v>
@@ -1487,21 +1722,21 @@
         <v>5.79</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>-0.35</v>
@@ -1510,21 +1745,21 @@
         <v>0.53</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>-10.44</v>
@@ -1533,21 +1768,21 @@
         <v>7.96</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>-3.57</v>
@@ -1556,7 +1791,7 @@
         <v>3.99</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1583,489 +1818,489 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
         <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G18">
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2077,4 +2312,431 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCCB3C7-51E1-431D-9CD6-02C1D7BEDD99}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="118.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>219</v>
+      </c>
+      <c r="B47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>227</v>
+      </c>
+      <c r="B51" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/shiny-examples/KDHEtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/KDHEtools/Extras/tables/Instruction_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/KDHEtools/inst/shiny-examples/KDHEtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1463" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDBEFD07-738A-4233-8D57-4114FFC88EF1}"/>
+  <xr:revisionPtr revIDLastSave="1467" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D3563D1-650D-4246-BF88-2A9184BCC52F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instr_Table_Bugs" sheetId="10" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Unique site identifier.</t>
   </si>
   <si>
-    <t>NAD83 datum.</t>
-  </si>
-  <si>
     <t>NAD83 datum. Longitude values in North America (west of the prime meridian) should be negative.</t>
   </si>
   <si>
@@ -724,6 +721,9 @@
   </si>
   <si>
     <t>INDEX_NAME</t>
+  </si>
+  <si>
+    <t>NAD83 datum. Not required for MMI calculation, but used for future mapping functions.</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9F0D2-CC77-4503-9118-5EC0831F78BB}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -1145,15 +1145,15 @@
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -1165,12 +1165,12 @@
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -1197,12 +1197,12 @@
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
@@ -1231,97 +1231,97 @@
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>5</v>
@@ -1330,12 +1330,12 @@
         <v>8</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>5</v>
@@ -1344,12 +1344,12 @@
         <v>8</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
@@ -1358,12 +1358,12 @@
         <v>8</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
@@ -1372,12 +1372,12 @@
         <v>8</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1386,12 +1386,12 @@
         <v>6</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1400,12 +1400,12 @@
         <v>6</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1414,12 +1414,12 @@
         <v>6</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1428,12 +1428,12 @@
         <v>6</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1442,12 +1442,12 @@
         <v>6</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1456,29 +1456,29 @@
         <v>6</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1487,12 +1487,12 @@
         <v>6</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1501,12 +1501,12 @@
         <v>6</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1515,12 +1515,12 @@
         <v>6</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1529,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1543,12 +1543,12 @@
         <v>6</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1557,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1571,12 +1571,12 @@
         <v>6</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1585,12 +1585,12 @@
         <v>6</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1599,12 +1599,12 @@
         <v>6</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1613,12 +1613,12 @@
         <v>6</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -1627,7 +1627,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1664,10 +1664,10 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -1681,16 +1681,16 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
       </c>
       <c r="E2">
         <v>-7.88</v>
@@ -1699,21 +1699,21 @@
         <v>5.79</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>-7.53</v>
@@ -1722,21 +1722,21 @@
         <v>5.79</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>-0.35</v>
@@ -1745,21 +1745,21 @@
         <v>0.53</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>-10.44</v>
@@ -1768,21 +1768,21 @@
         <v>7.96</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>-3.57</v>
@@ -1791,7 +1791,7 @@
         <v>3.99</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1821,22 +1821,22 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>110</v>
-      </c>
-      <c r="G1" t="s">
-        <v>111</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
@@ -1847,76 +1847,76 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1925,200 +1925,200 @@
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -2127,7 +2127,7 @@
         <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2135,19 +2135,19 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -2156,33 +2156,33 @@
         <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2190,7 +2190,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2199,15 +2199,15 @@
         <v>28</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2216,91 +2216,91 @@
         <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18">
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2318,7 +2318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCCB3C7-51E1-431D-9CD6-02C1D7BEDD99}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2330,234 +2330,234 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
         <v>156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
         <v>159</v>
-      </c>
-      <c r="B5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
         <v>161</v>
-      </c>
-      <c r="B6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
         <v>164</v>
-      </c>
-      <c r="B8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" t="s">
         <v>166</v>
-      </c>
-      <c r="B9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
         <v>169</v>
-      </c>
-      <c r="B11" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" t="s">
         <v>171</v>
-      </c>
-      <c r="B12" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" t="s">
         <v>174</v>
-      </c>
-      <c r="B14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" t="s">
         <v>176</v>
-      </c>
-      <c r="B15" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" t="s">
         <v>179</v>
-      </c>
-      <c r="B17" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2565,15 +2565,15 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2581,159 +2581,159 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" t="s">
         <v>199</v>
-      </c>
-      <c r="B37" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" t="s">
         <v>201</v>
-      </c>
-      <c r="B38" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" t="s">
         <v>203</v>
-      </c>
-      <c r="B39" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" t="s">
         <v>205</v>
-      </c>
-      <c r="B40" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" t="s">
         <v>207</v>
-      </c>
-      <c r="B41" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" t="s">
         <v>209</v>
-      </c>
-      <c r="B42" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" t="s">
         <v>211</v>
-      </c>
-      <c r="B43" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" t="s">
         <v>213</v>
-      </c>
-      <c r="B44" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" t="s">
         <v>215</v>
-      </c>
-      <c r="B45" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" t="s">
         <v>217</v>
-      </c>
-      <c r="B46" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" t="s">
         <v>219</v>
-      </c>
-      <c r="B47" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" t="s">
         <v>221</v>
-      </c>
-      <c r="B48" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" t="s">
         <v>223</v>
-      </c>
-      <c r="B49" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" t="s">
         <v>225</v>
-      </c>
-      <c r="B50" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/inst/shiny-examples/KDHEtools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/KDHEtools/Extras/tables/Instruction_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/KDHEtools/inst/shiny-examples/KDHEtools/Extras/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1467" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D3563D1-650D-4246-BF88-2A9184BCC52F}"/>
+  <xr:revisionPtr revIDLastSave="1468" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D22127A8-7063-42C8-BD9A-0EA26EC1C4CA}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,7 +723,7 @@
     <t>INDEX_NAME</t>
   </si>
   <si>
-    <t>NAD83 datum. Not required for MMI calculation, but used for future mapping functions.</t>
+    <t>NAD83 datum. Not required for MMI calculation, but included for future mapping functions.</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
